--- a/RegressionTests/NeuralNetClassifier_Unit_Test_4/expected_aptrans_anon.Copyof603992MonthlyPensionBreakdownMillicentPharmaLtdJuly2020upload.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_4/expected_aptrans_anon.Copyof603992MonthlyPensionBreakdownMillicentPharmaLtdJuly2020upload.xlsx
@@ -9,11 +9,10 @@
   <sheets>
     <sheet name="~Breakdown" sheetId="1" r:id="rId2"/>
     <sheet name="Breakdown" sheetId="3" r:id="rId3"/>
-    <sheet name="$Breakdown" sheetId="7" r:id="rId4"/>
-    <sheet name="#Breakdown" sheetId="4" r:id="rId5"/>
-    <sheet name="~Payment details" sheetId="2" r:id="rId6"/>
-    <sheet name="Payment details" sheetId="5" r:id="rId7"/>
-    <sheet name="$Payment details" sheetId="6" r:id="rId8"/>
+    <sheet name="#Breakdown" sheetId="4" r:id="rId4"/>
+    <sheet name="~Payment details" sheetId="2" r:id="rId5"/>
+    <sheet name="Payment details" sheetId="5" r:id="rId6"/>
+    <sheet name="$Payment details" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>PPSNO</t>
   </si>
@@ -165,6 +164,34 @@
     <t>AVC</t>
   </si>
   <si>
+    <t>PPS number 1692383MR does not exist for Scheme ID 603992
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 9718219QF does not exist for Scheme ID 603992
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 9576402QE does not exist for Scheme ID 603992
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 4336377IT does not exist for Scheme ID 603992
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 7272687N does not exist for Scheme ID 603992
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 8469611YS does not exist for Scheme ID 603992
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 6654718A does not exist for Scheme ID 603992
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -177,7 +204,85 @@
     <t>10936.42</t>
   </si>
   <si>
-    <t>5_Errors_found</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1181491</t>
+  </si>
+  <si>
+    <t>399201</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>02/09/2021</t>
+  </si>
+  <si>
+    <t>9,465.30</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM Aug 2021</t>
+  </si>
+  <si>
+    <t>1176100</t>
+  </si>
+  <si>
+    <t>28/07/2021</t>
+  </si>
+  <si>
+    <t>9,419.99</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM July 2021</t>
+  </si>
+  <si>
+    <t>1171695</t>
+  </si>
+  <si>
+    <t>9,579.92</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
+  </si>
+  <si>
+    <t>4_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -199,15 +304,6 @@
   </si>
   <si>
     <t>No Surname column was found</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
-  </si>
-  <si>
-    <t>1_Errors_found</t>
   </si>
 </sst>
 </file>
@@ -222,7 +318,7 @@
     <numFmt numFmtId="168" formatCode="MMM/YY"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -267,6 +363,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,7 +491,7 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -481,12 +592,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1115,7 +1227,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.344285714285714" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.571428571428573" style="24"/>
+    <col min="1" max="1" width="64.57142857142857" style="24"/>
     <col min="2" max="16384" width="10.571428571428571" style="24"/>
   </cols>
   <sheetData>
@@ -1142,8 +1254,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="27"/>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
@@ -1163,8 +1277,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1184,8 +1300,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="B4" s="24" t="s">
         <v>12</v>
       </c>
@@ -1205,8 +1323,10 @@
         <v>2500.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
@@ -1226,8 +1346,10 @@
         <v>507.42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="B6" s="24" t="s">
         <v>18</v>
       </c>
@@ -1247,8 +1369,10 @@
         <v>250.0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
@@ -1268,8 +1392,10 @@
         <v>968.72</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" s="24" t="s">
         <v>24</v>
       </c>
@@ -1297,38 +1423,182 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.344285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="10.285714285714286" style="24"/>
+    <col min="1" max="1" width="20.285714285714285" style="24"/>
+    <col min="2" max="2" width="16.142857142857142" style="24"/>
+    <col min="3" max="3" width="9.428571428571429" style="24"/>
+    <col min="4" max="4" width="18" style="24"/>
+    <col min="5" max="5" width="15.142857142857142" style="24"/>
+    <col min="6" max="6" width="14.428571428571429" style="24"/>
+    <col min="7" max="7" width="18" style="24"/>
+    <col min="8" max="8" width="12" style="24"/>
+    <col min="9" max="9" width="15.714285714285714" style="24"/>
+    <col min="10" max="16384" width="10.571428571428571" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="24">
+        <v>4605.9</v>
+      </c>
+      <c r="B2" s="24">
+        <v>2104.38</v>
+      </c>
+      <c r="C2" s="24">
+        <v>4226.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="28"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>60</v>
+      <c r="E12" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1338,67 +1608,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.344285714285714" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="10.571428571428571" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="24">
-        <v>4605.9</v>
-      </c>
-      <c r="B2" s="24">
-        <v>2104.38</v>
-      </c>
-      <c r="C2" s="24">
-        <v>4226.14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15">
-      <c r="A9" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -1541,7 +1750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1554,27 +1763,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.344285714285714" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.571428571428573" style="24"/>
+    <col min="1" max="1" width="11.285714285714286" style="24"/>
     <col min="2" max="16384" width="10.571428571428571" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
+    <row r="1" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1586,57 +1791,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="28"/>
+      <c r="A1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>53</v>
+      <c r="A2" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="24" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="24" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="24" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="24" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_4/expected_aptrans_anon.Copyof603992MonthlyPensionBreakdownMillicentPharmaLtdJuly2020upload.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_4/expected_aptrans_anon.Copyof603992MonthlyPensionBreakdownMillicentPharmaLtdJuly2020upload.xlsx
@@ -9,10 +9,11 @@
   <sheets>
     <sheet name="~Breakdown" sheetId="1" r:id="rId2"/>
     <sheet name="Breakdown" sheetId="3" r:id="rId3"/>
-    <sheet name="#Breakdown" sheetId="4" r:id="rId4"/>
-    <sheet name="~Payment details" sheetId="2" r:id="rId5"/>
-    <sheet name="Payment details" sheetId="5" r:id="rId6"/>
-    <sheet name="$Payment details" sheetId="6" r:id="rId7"/>
+    <sheet name="$Breakdown" sheetId="7" r:id="rId4"/>
+    <sheet name="#Breakdown" sheetId="4" r:id="rId5"/>
+    <sheet name="~Payment details" sheetId="2" r:id="rId6"/>
+    <sheet name="Payment details" sheetId="5" r:id="rId7"/>
+    <sheet name="$Payment details" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>PPSNO</t>
   </si>
@@ -164,34 +165,6 @@
     <t>AVC</t>
   </si>
   <si>
-    <t>PPS number 1692383MR does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 9718219QF does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 9576402QE does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 4336377IT does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 7272687N does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 8469611YS does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 6654718A does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -204,85 +177,7 @@
     <t>10936.42</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1181491</t>
-  </si>
-  <si>
-    <t>399201</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>02/09/2021</t>
-  </si>
-  <si>
-    <t>9,465.30</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM Aug 2021</t>
-  </si>
-  <si>
-    <t>1176100</t>
-  </si>
-  <si>
-    <t>28/07/2021</t>
-  </si>
-  <si>
-    <t>9,419.99</t>
-  </si>
-  <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM July 2021</t>
-  </si>
-  <si>
-    <t>1171695</t>
-  </si>
-  <si>
-    <t>9,579.92</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>ILIM June 2021</t>
-  </si>
-  <si>
-    <t>4_Errors_found</t>
+    <t>5_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -304,6 +199,15 @@
   </si>
   <si>
     <t>No Surname column was found</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
+  </si>
+  <si>
+    <t>1_Errors_found</t>
   </si>
 </sst>
 </file>
@@ -318,7 +222,7 @@
     <numFmt numFmtId="168" formatCode="MMM/YY"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -363,21 +267,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,7 +380,7 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -592,13 +481,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1227,7 +1115,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.344285714285714" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="64.57142857142857" style="24"/>
+    <col min="1" max="1" width="18.571428571428573" style="24"/>
     <col min="2" max="16384" width="10.571428571428571" style="24"/>
   </cols>
   <sheetData>
@@ -1254,10 +1142,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="27" t="s">
-        <v>47</v>
-      </c>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="27"/>
       <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
@@ -1277,10 +1163,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="27" t="s">
-        <v>48</v>
-      </c>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="27"/>
       <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1300,10 +1184,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="27" t="s">
-        <v>49</v>
-      </c>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="27"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
       </c>
@@ -1323,10 +1205,8 @@
         <v>2500.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="27" t="s">
-        <v>50</v>
-      </c>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="27"/>
       <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
@@ -1346,10 +1226,8 @@
         <v>507.42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="27" t="s">
-        <v>51</v>
-      </c>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="27"/>
       <c r="B6" s="24" t="s">
         <v>18</v>
       </c>
@@ -1369,10 +1247,8 @@
         <v>250.0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="27" t="s">
-        <v>52</v>
-      </c>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="27"/>
       <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
@@ -1392,10 +1268,8 @@
         <v>968.72</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="27" t="s">
-        <v>53</v>
-      </c>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="27"/>
       <c r="B8" s="24" t="s">
         <v>24</v>
       </c>
@@ -1423,7 +1297,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I15"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="10.285714285714286" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1431,16 +1347,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.344285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.285714285714285" style="24"/>
-    <col min="2" max="2" width="16.142857142857142" style="24"/>
-    <col min="3" max="3" width="9.428571428571429" style="24"/>
-    <col min="4" max="4" width="18" style="24"/>
-    <col min="5" max="5" width="15.142857142857142" style="24"/>
-    <col min="6" max="6" width="14.428571428571429" style="24"/>
-    <col min="7" max="7" width="18" style="24"/>
-    <col min="8" max="8" width="12" style="24"/>
-    <col min="9" max="9" width="15.714285714285714" style="24"/>
-    <col min="10" max="16384" width="10.571428571428571" style="24"/>
+    <col min="1" max="16384" width="10.571428571428571" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -1467,138 +1374,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="24" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="24" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -1750,7 +1541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1763,23 +1554,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.344285714285714" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.285714285714286" style="24"/>
+    <col min="1" max="1" width="18.571428571428573" style="24"/>
     <col min="2" max="16384" width="10.571428571428571" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75"/>
+    <row r="1" spans="1:1" ht="15">
+      <c r="A1" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1791,49 +1586,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="29"/>
+      <c r="A1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>86</v>
+      <c r="A2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="24" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="24" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="24" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="24" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>91</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_4/expected_aptrans_anon.Copyof603992MonthlyPensionBreakdownMillicentPharmaLtdJuly2020upload.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_4/expected_aptrans_anon.Copyof603992MonthlyPensionBreakdownMillicentPharmaLtdJuly2020upload.xlsx
@@ -442,14 +442,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -462,6 +454,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -491,7 +491,7 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -589,11 +589,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1278,7 +1281,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -1301,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -1324,7 +1327,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -1347,7 +1350,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -1370,7 +1373,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -1393,7 +1396,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -1486,31 +1489,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="29" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1791,16 +1794,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>86</v>
       </c>
     </row>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_4/expected_aptrans_anon.Copyof603992MonthlyPensionBreakdownMillicentPharmaLtdJuly2020upload.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_4/expected_aptrans_anon.Copyof603992MonthlyPensionBreakdownMillicentPharmaLtdJuly2020upload.xlsx
@@ -9,10 +9,11 @@
   <sheets>
     <sheet name="~Breakdown" sheetId="1" r:id="rId2"/>
     <sheet name="Breakdown" sheetId="3" r:id="rId3"/>
-    <sheet name="#Breakdown" sheetId="4" r:id="rId4"/>
-    <sheet name="~Payment details" sheetId="2" r:id="rId5"/>
-    <sheet name="Payment details" sheetId="5" r:id="rId6"/>
-    <sheet name="$Payment details" sheetId="6" r:id="rId7"/>
+    <sheet name="$Breakdown" sheetId="7" r:id="rId4"/>
+    <sheet name="#Breakdown" sheetId="4" r:id="rId5"/>
+    <sheet name="~Payment details" sheetId="2" r:id="rId6"/>
+    <sheet name="Payment details" sheetId="5" r:id="rId7"/>
+    <sheet name="$Payment details" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>PPSNO</t>
   </si>
@@ -164,34 +165,6 @@
     <t>AVC</t>
   </si>
   <si>
-    <t>PPS number 1692383MR does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 9718219QF does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 9576402QE does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 4336377IT does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 7272687N does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 8469611YS does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 6654718A does not exist for Scheme ID 603992
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -204,85 +177,7 @@
     <t>10936.42</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1181491</t>
-  </si>
-  <si>
-    <t>399201</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>02/09/2021</t>
-  </si>
-  <si>
-    <t>9,465.30</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM Aug 2021</t>
-  </si>
-  <si>
-    <t>1176100</t>
-  </si>
-  <si>
-    <t>28/07/2021</t>
-  </si>
-  <si>
-    <t>9,419.99</t>
-  </si>
-  <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM July 2021</t>
-  </si>
-  <si>
-    <t>1171695</t>
-  </si>
-  <si>
-    <t>9,579.92</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>ILIM June 2021</t>
-  </si>
-  <si>
-    <t>4_Errors_found</t>
+    <t>5_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -304,6 +199,15 @@
   </si>
   <si>
     <t>No Surname column was found</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
+  </si>
+  <si>
+    <t>1_Errors_found</t>
   </si>
 </sst>
 </file>
@@ -318,7 +222,7 @@
     <numFmt numFmtId="168" formatCode="MMM/YY"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -370,23 +274,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -491,7 +388,7 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -589,19 +486,18 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1230,11 +1126,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.344285714285714" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="64.57142857142857" style="24"/>
+    <col min="1" max="1" width="18.571428571428573" style="24"/>
     <col min="2" max="16384" width="10.571428571428571" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="30">
       <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
@@ -1257,10 +1153,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="27" t="s">
-        <v>47</v>
-      </c>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="27"/>
       <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
@@ -1280,10 +1174,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="28" t="s">
-        <v>48</v>
-      </c>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="28"/>
       <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1303,10 +1195,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="28" t="s">
-        <v>49</v>
-      </c>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="28"/>
       <c r="B4" s="24" t="s">
         <v>12</v>
       </c>
@@ -1326,10 +1216,8 @@
         <v>2500.0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="28" t="s">
-        <v>50</v>
-      </c>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="28"/>
       <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
@@ -1349,10 +1237,8 @@
         <v>507.42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="28" t="s">
-        <v>51</v>
-      </c>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="28"/>
       <c r="B6" s="24" t="s">
         <v>18</v>
       </c>
@@ -1372,10 +1258,8 @@
         <v>250.0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="28" t="s">
-        <v>52</v>
-      </c>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="28"/>
       <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
@@ -1395,10 +1279,8 @@
         <v>968.72</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="28" t="s">
-        <v>53</v>
-      </c>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="28"/>
       <c r="B8" s="24" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1308,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I15"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="10.285714285714286" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1434,16 +1358,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.344285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.285714285714285" style="24"/>
-    <col min="2" max="2" width="16.142857142857142" style="24"/>
-    <col min="3" max="3" width="9.428571428571429" style="24"/>
-    <col min="4" max="4" width="18" style="24"/>
-    <col min="5" max="5" width="15.142857142857142" style="24"/>
-    <col min="6" max="6" width="14.428571428571429" style="24"/>
-    <col min="7" max="7" width="18" style="24"/>
-    <col min="8" max="8" width="12" style="24"/>
-    <col min="9" max="9" width="15.714285714285714" style="24"/>
-    <col min="10" max="16384" width="10.571428571428571" style="24"/>
+    <col min="1" max="16384" width="10.571428571428571" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -1470,138 +1385,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="24" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="24" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -1753,7 +1552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1766,23 +1565,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.344285714285714" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.285714285714286" style="24"/>
+    <col min="1" max="1" width="18.571428571428573" style="24"/>
     <col min="2" max="16384" width="10.571428571428571" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75"/>
+    <row r="1" spans="1:1" ht="30">
+      <c r="A1" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1794,49 +1597,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>86</v>
+      <c r="A2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="24" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="24" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="24" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="24" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>91</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
